--- a/PastaDocumentosProjeto/1TSCG-Pesquisa-Sistemas-HelpDesk.xlsx
+++ b/PastaDocumentosProjeto/1TSCG-Pesquisa-Sistemas-HelpDesk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27612"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FIAP-2024\TEMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{773BB8D3-D9F0-4590-BEC4-BF4D998C53CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406CE0C4-69FD-4C9E-BA42-9BE7EB2E8DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{10E7BF47-8D7E-407C-966C-5C57EA59BE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{10E7BF47-8D7E-407C-966C-5C57EA59BE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>REQUISITOS DE PROJETO: SISTEMA DE GESTÃO DE CHAMADOS DE SUPORTE</t>
   </si>
@@ -111,13 +109,91 @@
   </si>
   <si>
     <t>-Base de soluções conhecidas alimentada pela equipe solucionadora</t>
+  </si>
+  <si>
+    <t>Lista de Requisitos - PROJETO SAC (Sistema de atendimento ao consumidor)</t>
+  </si>
+  <si>
+    <t>Requisito</t>
+  </si>
+  <si>
+    <t>Natureza</t>
+  </si>
+  <si>
+    <t>Produto ou Processo</t>
+  </si>
+  <si>
+    <t>LISTA DE REQUISITOS - PROJETO SAC (Sistema de atendimento ao consumidor)</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Origem</t>
+  </si>
+  <si>
+    <t>Domínio</t>
+  </si>
+  <si>
+    <t>Funcional ou Não funcional</t>
+  </si>
+  <si>
+    <t>Usuário/Negócio ou TI/Sistema</t>
+  </si>
+  <si>
+    <t>Regras de negócio ou técnicas</t>
+  </si>
+  <si>
+    <t>Abertura de chamados por diversas midias</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Whatsapp, Acebook, SMS, Live chat, email, voz</t>
+  </si>
+  <si>
+    <t>funcional</t>
+  </si>
+  <si>
+    <t>sistema</t>
+  </si>
+  <si>
+    <t>registro de ocorencia tecnica</t>
+  </si>
+  <si>
+    <t>produto</t>
+  </si>
+  <si>
+    <t>evento , incidente, problema , requisição</t>
+  </si>
+  <si>
+    <t>Banco de dados, app backend, app frontend, redes de computadores</t>
+  </si>
+  <si>
+    <t>sms microsoft, Caunicenter</t>
+  </si>
+  <si>
+    <t>categorização e priorização de chamados</t>
+  </si>
+  <si>
+    <t>não funcional</t>
+  </si>
+  <si>
+    <t>integração de software de inventario de dispositivo e softwares de informatica</t>
+  </si>
+  <si>
+    <t>somente para o acompanhamento gerencial</t>
+  </si>
+  <si>
+    <t>interface mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,16 +225,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAAAA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,20 +279,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,137 +648,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2254A464-7A54-416C-863C-B038E8CD2CDE}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="2" customFormat="1">
+    <row r="6" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" s="2" customFormat="1">
+    <row r="12" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -638,15 +939,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100223DA578DE33E44E8DD11C312C11F0C0" ma:contentTypeVersion="13" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1c2e884288b92160a2ad7f1ebe556f42">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7bc641a7-997f-4048-a412-d593c6319208" xmlns:ns3="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5bd635487ccdc3d8a626d90b759b950b" ns2:_="" ns3:_="">
     <xsd:import namespace="7bc641a7-997f-4048-a412-d593c6319208"/>
@@ -853,6 +1145,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -865,13 +1166,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57FF65F6-C107-4328-9754-73612D477A95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A85446C-BCFB-47F1-9C19-DCFBCFAA5498}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7bc641a7-997f-4048-a412-d593c6319208"/>
+    <ds:schemaRef ds:uri="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A85446C-BCFB-47F1-9C19-DCFBCFAA5498}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57FF65F6-C107-4328-9754-73612D477A95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5799A634-B3A1-4560-B1EC-9DDE3CB107BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5799A634-B3A1-4560-B1EC-9DDE3CB107BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9"/>
+    <ds:schemaRef ds:uri="7bc641a7-997f-4048-a412-d593c6319208"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>